--- a/Ijara_Karthi2/TestData/IjaraJSPaths.xlsx
+++ b/Ijara_Karthi2/TestData/IjaraJSPaths.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -159,15 +159,9 @@
     <t>document.getElementsByClassName("sc-ion-select-popover-ios sc-ion-label-ios-h sc-ion-label-ios-s ios hydrated")[1]</t>
   </si>
   <si>
-    <t>document.getElementsByClassName("_textBox_item ion-star-inserted item-interactive item-input item-has-placeholder item ios item-lines-none item-fill-none hydrated ion-untouched ion-pristine ion-valid")[2]</t>
-  </si>
-  <si>
     <t>document.getElementsByClassName("p-checkbox-box p-component")[0]</t>
   </si>
   <si>
-    <t>document.querySelector('#pr_id_9 &gt; div.p-datatable-header.ng-star-inserted &gt; div:nth-child(2) &gt; button')</t>
-  </si>
-  <si>
     <t>document.getElementsByClassName("p-element savecmnbtn p-button-info p-button-sm p-button-raised w-90 k-mx-2 p-button p-component p-button-icon-only ng-star-inserted")[0]</t>
   </si>
   <si>
@@ -199,6 +193,30 @@
   </si>
   <si>
     <t>document.getElementsByClassName("select-interface-option ng-star-inserted md sc-ion-select-popover-ios item ios item-lines-default item-fill-none in-list ion-activatable ion-focusable hydrated item-label")[1]</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast[role="status"]').shadowRoot.querySelector('div[part="message"]').textContent</t>
+  </si>
+  <si>
+    <t>PleaseFillMandatoryField</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("ng-star-inserted ion-color ion-color-primary error-text ios hydrated")[0]</t>
+  </si>
+  <si>
+    <t>RequiredField</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("p-element p-button-sm p-button-info primelistbtn p-button p-component p-button-icon-only")[1]</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="expenseAmount"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-pencil"]')</t>
+  </si>
+  <si>
+    <t>EditIcon</t>
   </si>
 </sst>
 </file>
@@ -653,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -966,7 +984,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1019,7 +1037,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1072,7 +1090,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1125,7 +1143,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1178,7 +1196,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1231,7 +1249,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1390,7 +1408,7 @@
         <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1443,7 +1461,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1495,8 +1513,8 @@
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
+      <c r="B20" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1549,7 +1567,7 @@
         <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1599,10 +1617,10 @@
     </row>
     <row r="22" spans="1:47">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1652,10 +1670,10 @@
     </row>
     <row r="23" spans="1:47">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1704,8 +1722,12 @@
       <c r="AU23" s="2"/>
     </row>
     <row r="24" spans="1:47">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1753,8 +1775,12 @@
       <c r="AU24" s="2"/>
     </row>
     <row r="25" spans="1:47">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1802,8 +1828,12 @@
       <c r="AU25" s="2"/>
     </row>
     <row r="26" spans="1:47">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
